--- a/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #02  FEBRERO 2022/CREDITOS  4 CARNES   ZAVALETA   FEBRERO    2022 Validado.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #02  FEBRERO 2022/CREDITOS  4 CARNES   ZAVALETA   FEBRERO    2022 Validado.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="34">
   <si>
     <t>REMISION</t>
   </si>
@@ -226,6 +226,9 @@
   </si>
   <si>
     <t xml:space="preserve">ABASTOS 11 SUR </t>
+  </si>
+  <si>
+    <t>PROSUBCA</t>
   </si>
 </sst>
 </file>
@@ -6309,7 +6312,7 @@
       <pane xSplit="3" ySplit="3" topLeftCell="D35" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="H41" sqref="H41"/>
+      <selection pane="bottomRight" activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -7317,7 +7320,7 @@
       <c r="G41" s="96">
         <v>44566</v>
       </c>
-      <c r="H41" s="71">
+      <c r="H41" s="75">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -7804,8 +7807,8 @@
   </sheetPr>
   <dimension ref="A1:I73"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -7927,11 +7930,15 @@
       <c r="E6" s="20">
         <v>45782</v>
       </c>
-      <c r="F6" s="21"/>
-      <c r="G6" s="22"/>
+      <c r="F6" s="21">
+        <v>44601</v>
+      </c>
+      <c r="G6" s="22">
+        <v>45782</v>
+      </c>
       <c r="H6" s="18">
         <f t="shared" si="0"/>
-        <v>45782</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -8166,198 +8173,276 @@
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="12"/>
+      <c r="A18" s="12">
+        <v>44599</v>
+      </c>
       <c r="B18" s="13">
         <v>193</v>
       </c>
       <c r="C18" s="24"/>
-      <c r="D18" s="19"/>
-      <c r="E18" s="20"/>
+      <c r="D18" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E18" s="20">
+        <v>6834</v>
+      </c>
       <c r="F18" s="103"/>
       <c r="G18" s="22"/>
       <c r="H18" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6834</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="12"/>
+      <c r="A19" s="12">
+        <v>44599</v>
+      </c>
       <c r="B19" s="13">
         <v>194</v>
       </c>
       <c r="C19" s="25"/>
-      <c r="D19" s="19"/>
-      <c r="E19" s="20"/>
+      <c r="D19" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="E19" s="20">
+        <v>9261</v>
+      </c>
       <c r="F19" s="21"/>
       <c r="G19" s="22"/>
       <c r="H19" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>9261</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="12"/>
+      <c r="A20" s="12">
+        <v>44600</v>
+      </c>
       <c r="B20" s="13">
         <v>195</v>
       </c>
       <c r="C20" s="24"/>
-      <c r="D20" s="26"/>
-      <c r="E20" s="20"/>
+      <c r="D20" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="E20" s="20">
+        <v>23661</v>
+      </c>
       <c r="F20" s="21"/>
       <c r="G20" s="22"/>
       <c r="H20" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>23661</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="12"/>
+      <c r="A21" s="12">
+        <v>44601</v>
+      </c>
       <c r="B21" s="13">
         <v>196</v>
       </c>
       <c r="C21" s="24"/>
-      <c r="D21" s="19"/>
-      <c r="E21" s="20"/>
+      <c r="D21" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="E21" s="20">
+        <v>48706</v>
+      </c>
       <c r="F21" s="21"/>
       <c r="G21" s="22"/>
       <c r="H21" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>48706</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="12"/>
+      <c r="A22" s="12">
+        <v>44601</v>
+      </c>
       <c r="B22" s="13">
         <v>197</v>
       </c>
       <c r="C22" s="24"/>
-      <c r="D22" s="19"/>
-      <c r="E22" s="20"/>
+      <c r="D22" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="E22" s="20">
+        <v>16765</v>
+      </c>
       <c r="F22" s="21"/>
       <c r="G22" s="22"/>
       <c r="H22" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>16765</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="12"/>
+      <c r="A23" s="12">
+        <v>44601</v>
+      </c>
       <c r="B23" s="13">
         <v>198</v>
       </c>
       <c r="C23" s="24"/>
-      <c r="D23" s="19"/>
-      <c r="E23" s="20"/>
+      <c r="D23" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E23" s="20">
+        <v>2040</v>
+      </c>
       <c r="F23" s="21"/>
       <c r="G23" s="22"/>
       <c r="H23" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2040</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="12"/>
+      <c r="A24" s="12">
+        <v>44601</v>
+      </c>
       <c r="B24" s="13">
         <v>199</v>
       </c>
       <c r="C24" s="24"/>
-      <c r="D24" s="19"/>
-      <c r="E24" s="20"/>
+      <c r="D24" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="E24" s="20">
+        <v>2655</v>
+      </c>
       <c r="F24" s="21"/>
       <c r="G24" s="22"/>
       <c r="H24" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2655</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="12"/>
+      <c r="A25" s="12">
+        <v>44602</v>
+      </c>
       <c r="B25" s="13">
         <v>200</v>
       </c>
       <c r="C25" s="24"/>
-      <c r="D25" s="19"/>
-      <c r="E25" s="20"/>
+      <c r="D25" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E25" s="20">
+        <v>6814</v>
+      </c>
       <c r="F25" s="21"/>
       <c r="G25" s="22"/>
       <c r="H25" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6814</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="12"/>
+      <c r="A26" s="12">
+        <v>44602</v>
+      </c>
       <c r="B26" s="13">
         <v>201</v>
       </c>
       <c r="C26" s="24"/>
-      <c r="D26" s="19"/>
-      <c r="E26" s="20"/>
+      <c r="D26" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="E26" s="20">
+        <v>8547</v>
+      </c>
       <c r="F26" s="21"/>
       <c r="G26" s="22"/>
       <c r="H26" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8547</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="12"/>
+      <c r="A27" s="12">
+        <v>44603</v>
+      </c>
       <c r="B27" s="13">
         <v>202</v>
       </c>
       <c r="C27" s="24"/>
-      <c r="D27" s="19"/>
-      <c r="E27" s="20"/>
+      <c r="D27" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="E27" s="20">
+        <v>35414</v>
+      </c>
       <c r="F27" s="21"/>
       <c r="G27" s="22"/>
       <c r="H27" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>35414</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="12"/>
+      <c r="A28" s="12">
+        <v>44604</v>
+      </c>
       <c r="B28" s="13">
         <v>203</v>
       </c>
       <c r="C28" s="24"/>
-      <c r="D28" s="19"/>
-      <c r="E28" s="20"/>
+      <c r="D28" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="E28" s="20">
+        <v>7035</v>
+      </c>
       <c r="F28" s="21"/>
       <c r="G28" s="22"/>
       <c r="H28" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>7035</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="12"/>
+      <c r="A29" s="12">
+        <v>44604</v>
+      </c>
       <c r="B29" s="13">
         <v>204</v>
       </c>
       <c r="C29" s="24"/>
-      <c r="D29" s="19"/>
-      <c r="E29" s="20"/>
+      <c r="D29" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E29" s="20">
+        <v>75</v>
+      </c>
       <c r="F29" s="21"/>
       <c r="G29" s="22"/>
       <c r="H29" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>75</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="12"/>
+      <c r="A30" s="12">
+        <v>44605</v>
+      </c>
       <c r="B30" s="13">
         <v>205</v>
       </c>
       <c r="C30" s="24"/>
-      <c r="D30" s="19"/>
-      <c r="E30" s="20"/>
+      <c r="D30" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="E30" s="20">
+        <v>6556</v>
+      </c>
       <c r="F30" s="21"/>
       <c r="G30" s="22"/>
       <c r="H30" s="75">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6556</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
@@ -8737,16 +8822,16 @@
       <c r="D56" s="2"/>
       <c r="E56" s="39">
         <f>SUM(E4:E55)</f>
-        <v>143356</v>
+        <v>317719</v>
       </c>
       <c r="F56" s="39"/>
       <c r="G56" s="39">
         <f>SUM(G4:G55)</f>
-        <v>0</v>
+        <v>45782</v>
       </c>
       <c r="H56" s="40">
         <f>SUM(H4:H55)</f>
-        <v>143356</v>
+        <v>271937</v>
       </c>
       <c r="I56" s="2"/>
     </row>
@@ -8790,7 +8875,7 @@
       <c r="D60" s="2"/>
       <c r="E60" s="110">
         <f>E56-G56</f>
-        <v>143356</v>
+        <v>271937</v>
       </c>
       <c r="F60" s="111"/>
       <c r="G60" s="112"/>

--- a/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #02  FEBRERO 2022/CREDITOS  4 CARNES   ZAVALETA   FEBRERO    2022 Validado.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #02  FEBRERO 2022/CREDITOS  4 CARNES   ZAVALETA   FEBRERO    2022 Validado.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="34">
   <si>
     <t>REMISION</t>
   </si>
@@ -7808,7 +7808,7 @@
   <dimension ref="A1:I73"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -8446,28 +8446,40 @@
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="12"/>
+      <c r="A31" s="12">
+        <v>44606</v>
+      </c>
       <c r="B31" s="13">
         <v>206</v>
       </c>
       <c r="C31" s="24"/>
-      <c r="D31" s="19"/>
-      <c r="E31" s="20"/>
+      <c r="D31" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="E31" s="20">
+        <v>19810</v>
+      </c>
       <c r="F31" s="21"/>
       <c r="G31" s="22"/>
       <c r="H31" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>19810</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="23"/>
+      <c r="A32" s="23">
+        <v>44607</v>
+      </c>
       <c r="B32" s="13">
         <v>207</v>
       </c>
       <c r="C32" s="24"/>
-      <c r="D32" s="19"/>
-      <c r="E32" s="20"/>
+      <c r="D32" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E32" s="20">
+        <v>9120</v>
+      </c>
       <c r="F32" s="21"/>
       <c r="G32" s="22"/>
       <c r="H32" s="18">
@@ -8822,7 +8834,7 @@
       <c r="D56" s="2"/>
       <c r="E56" s="39">
         <f>SUM(E4:E55)</f>
-        <v>317719</v>
+        <v>346649</v>
       </c>
       <c r="F56" s="39"/>
       <c r="G56" s="39">
@@ -8831,7 +8843,7 @@
       </c>
       <c r="H56" s="40">
         <f>SUM(H4:H55)</f>
-        <v>271937</v>
+        <v>291747</v>
       </c>
       <c r="I56" s="2"/>
     </row>
@@ -8875,7 +8887,7 @@
       <c r="D60" s="2"/>
       <c r="E60" s="110">
         <f>E56-G56</f>
-        <v>271937</v>
+        <v>300867</v>
       </c>
       <c r="F60" s="111"/>
       <c r="G60" s="112"/>

--- a/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #02  FEBRERO 2022/CREDITOS  4 CARNES   ZAVALETA   FEBRERO    2022 Validado.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #02  FEBRERO 2022/CREDITOS  4 CARNES   ZAVALETA   FEBRERO    2022 Validado.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="35">
   <si>
     <t>REMISION</t>
   </si>
@@ -229,6 +229,9 @@
   </si>
   <si>
     <t>PROSUBCA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABASTOS  HERRADURA </t>
   </si>
 </sst>
 </file>
@@ -6312,7 +6315,7 @@
       <pane xSplit="3" ySplit="3" topLeftCell="D35" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="D42" sqref="D42"/>
+      <selection pane="bottomRight" activeCell="G46" sqref="G46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -7414,11 +7417,15 @@
       <c r="E45" s="20">
         <v>18072</v>
       </c>
-      <c r="F45" s="95"/>
-      <c r="G45" s="96"/>
+      <c r="F45" s="95">
+        <v>44608</v>
+      </c>
+      <c r="G45" s="96">
+        <v>18072</v>
+      </c>
       <c r="H45" s="18">
         <f t="shared" si="0"/>
-        <v>18072</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -7613,11 +7620,11 @@
       <c r="F56" s="39"/>
       <c r="G56" s="39">
         <f>SUM(G4:G55)</f>
-        <v>495009</v>
+        <v>513081</v>
       </c>
       <c r="H56" s="40">
         <f>SUM(H4:H55)</f>
-        <v>110586</v>
+        <v>92514</v>
       </c>
       <c r="I56" s="2"/>
     </row>
@@ -7661,7 +7668,7 @@
       <c r="D60" s="2"/>
       <c r="E60" s="110">
         <f>E56-G56</f>
-        <v>110586</v>
+        <v>92514</v>
       </c>
       <c r="F60" s="111"/>
       <c r="G60" s="112"/>
@@ -7807,8 +7814,8 @@
   </sheetPr>
   <dimension ref="A1:I73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -8249,11 +8256,15 @@
       <c r="E21" s="20">
         <v>48706</v>
       </c>
-      <c r="F21" s="21"/>
-      <c r="G21" s="22"/>
+      <c r="F21" s="21">
+        <v>44611</v>
+      </c>
+      <c r="G21" s="22">
+        <v>48706</v>
+      </c>
       <c r="H21" s="18">
         <f t="shared" si="0"/>
-        <v>48706</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -8312,11 +8323,15 @@
       <c r="E24" s="20">
         <v>2655</v>
       </c>
-      <c r="F24" s="21"/>
-      <c r="G24" s="22"/>
+      <c r="F24" s="21">
+        <v>44608</v>
+      </c>
+      <c r="G24" s="22">
+        <v>2655</v>
+      </c>
       <c r="H24" s="18">
         <f t="shared" si="0"/>
-        <v>2655</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8487,27 +8502,43 @@
       </c>
     </row>
     <row r="33" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="23"/>
+      <c r="A33" s="23">
+        <v>44608</v>
+      </c>
       <c r="B33" s="13">
         <v>208</v>
       </c>
       <c r="C33" s="24"/>
-      <c r="D33" s="19"/>
-      <c r="E33" s="20"/>
-      <c r="F33" s="21"/>
-      <c r="G33" s="22"/>
+      <c r="D33" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="E33" s="20">
+        <v>1520</v>
+      </c>
+      <c r="F33" s="21">
+        <v>44615</v>
+      </c>
+      <c r="G33" s="22">
+        <v>1520</v>
+      </c>
       <c r="H33" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="23"/>
+      <c r="A34" s="23">
+        <v>44608</v>
+      </c>
       <c r="B34" s="13">
         <v>209</v>
       </c>
       <c r="C34" s="24"/>
-      <c r="D34" s="19"/>
-      <c r="E34" s="20"/>
+      <c r="D34" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E34" s="20">
+        <v>7496</v>
+      </c>
       <c r="F34" s="21"/>
       <c r="G34" s="22"/>
       <c r="H34" s="18">
@@ -8515,228 +8546,322 @@
       </c>
     </row>
     <row r="35" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="23"/>
+      <c r="A35" s="23">
+        <v>44608</v>
+      </c>
       <c r="B35" s="13">
         <v>210</v>
       </c>
       <c r="C35" s="24"/>
-      <c r="D35" s="19"/>
-      <c r="E35" s="20"/>
+      <c r="D35" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="E35" s="20">
+        <v>1060</v>
+      </c>
       <c r="F35" s="21"/>
       <c r="G35" s="22"/>
       <c r="H35" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="23"/>
+      <c r="A36" s="23">
+        <v>44609</v>
+      </c>
       <c r="B36" s="13">
         <v>211</v>
       </c>
       <c r="C36" s="24"/>
-      <c r="D36" s="19"/>
-      <c r="E36" s="20"/>
+      <c r="D36" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="E36" s="20">
+        <v>6970</v>
+      </c>
       <c r="F36" s="21"/>
       <c r="G36" s="22"/>
       <c r="H36" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6970</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="23"/>
+      <c r="A37" s="23">
+        <v>44610</v>
+      </c>
       <c r="B37" s="13">
         <v>212</v>
       </c>
       <c r="C37" s="24"/>
-      <c r="D37" s="19"/>
-      <c r="E37" s="20"/>
-      <c r="F37" s="21"/>
-      <c r="G37" s="22"/>
+      <c r="D37" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E37" s="20">
+        <v>16986</v>
+      </c>
+      <c r="F37" s="21">
+        <v>44610</v>
+      </c>
+      <c r="G37" s="22">
+        <v>16986</v>
+      </c>
       <c r="H37" s="18">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="23"/>
+      <c r="A38" s="23">
+        <v>44610</v>
+      </c>
       <c r="B38" s="13">
         <v>213</v>
       </c>
       <c r="C38" s="24"/>
-      <c r="D38" s="19"/>
-      <c r="E38" s="20"/>
+      <c r="D38" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="E38" s="20">
+        <v>40856</v>
+      </c>
       <c r="F38" s="21"/>
       <c r="G38" s="22"/>
       <c r="H38" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>40856</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="23"/>
+      <c r="A39" s="23">
+        <v>44610</v>
+      </c>
       <c r="B39" s="13">
         <v>214</v>
       </c>
       <c r="C39" s="24"/>
-      <c r="D39" s="19"/>
-      <c r="E39" s="20"/>
+      <c r="D39" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="E39" s="20">
+        <v>7105</v>
+      </c>
       <c r="F39" s="21"/>
       <c r="G39" s="22"/>
       <c r="H39" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>7105</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="23"/>
+      <c r="A40" s="23">
+        <v>44611</v>
+      </c>
       <c r="B40" s="13">
         <v>215</v>
       </c>
       <c r="C40" s="24"/>
-      <c r="D40" s="19"/>
-      <c r="E40" s="20"/>
+      <c r="D40" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="E40" s="20">
+        <v>7690</v>
+      </c>
       <c r="F40" s="21"/>
       <c r="G40" s="22"/>
       <c r="H40" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>7690</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="23"/>
+      <c r="A41" s="23">
+        <v>44611</v>
+      </c>
       <c r="B41" s="13">
         <v>216</v>
       </c>
       <c r="C41" s="24"/>
-      <c r="D41" s="19"/>
-      <c r="E41" s="20"/>
+      <c r="D41" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E41" s="20">
+        <v>340</v>
+      </c>
       <c r="F41" s="21"/>
       <c r="G41" s="22"/>
       <c r="H41" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>340</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="23"/>
+      <c r="A42" s="23">
+        <v>44613</v>
+      </c>
       <c r="B42" s="13">
         <v>217</v>
       </c>
       <c r="C42" s="24"/>
-      <c r="D42" s="19"/>
-      <c r="E42" s="20"/>
+      <c r="D42" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="E42" s="20">
+        <v>8456</v>
+      </c>
       <c r="F42" s="21"/>
       <c r="G42" s="22"/>
       <c r="H42" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8456</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="23"/>
+      <c r="A43" s="23">
+        <v>44613</v>
+      </c>
       <c r="B43" s="13">
         <v>218</v>
       </c>
       <c r="C43" s="24"/>
-      <c r="D43" s="19"/>
-      <c r="E43" s="20"/>
+      <c r="D43" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="E43" s="20">
+        <v>21362</v>
+      </c>
       <c r="F43" s="21"/>
       <c r="G43" s="22"/>
       <c r="H43" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>21362</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="23"/>
+      <c r="A44" s="23">
+        <v>44614</v>
+      </c>
       <c r="B44" s="13">
         <v>219</v>
       </c>
       <c r="C44" s="24"/>
-      <c r="D44" s="19"/>
-      <c r="E44" s="20"/>
+      <c r="D44" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E44" s="20">
+        <v>11560</v>
+      </c>
       <c r="F44" s="21"/>
       <c r="G44" s="22"/>
       <c r="H44" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>11560</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="23"/>
+      <c r="A45" s="23">
+        <v>44615</v>
+      </c>
       <c r="B45" s="13">
         <v>220</v>
       </c>
       <c r="C45" s="24"/>
-      <c r="D45" s="19"/>
-      <c r="E45" s="20"/>
+      <c r="D45" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="E45" s="20">
+        <v>189945</v>
+      </c>
       <c r="F45" s="21"/>
       <c r="G45" s="22"/>
       <c r="H45" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>189945</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="23"/>
+      <c r="A46" s="23">
+        <v>44615</v>
+      </c>
       <c r="B46" s="13">
         <v>221</v>
       </c>
       <c r="C46" s="24"/>
-      <c r="D46" s="19"/>
-      <c r="E46" s="20"/>
+      <c r="D46" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="E46" s="20">
+        <v>1313</v>
+      </c>
       <c r="F46" s="21"/>
       <c r="G46" s="22"/>
       <c r="H46" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="23"/>
+      <c r="A47" s="23">
+        <v>44615</v>
+      </c>
       <c r="B47" s="13">
         <v>222</v>
       </c>
       <c r="C47" s="24"/>
-      <c r="D47" s="19"/>
-      <c r="E47" s="20"/>
+      <c r="D47" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="E47" s="20">
+        <v>91036</v>
+      </c>
       <c r="F47" s="21"/>
       <c r="G47" s="22"/>
       <c r="H47" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>91036</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="23"/>
+      <c r="A48" s="23">
+        <v>44615</v>
+      </c>
       <c r="B48" s="13">
         <v>223</v>
       </c>
       <c r="C48" s="24"/>
-      <c r="D48" s="19"/>
-      <c r="E48" s="20"/>
+      <c r="D48" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="E48" s="20">
+        <v>170</v>
+      </c>
       <c r="F48" s="21"/>
       <c r="G48" s="22"/>
       <c r="H48" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>170</v>
       </c>
     </row>
     <row r="49" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="23"/>
+      <c r="A49" s="23">
+        <v>44615</v>
+      </c>
       <c r="B49" s="13">
         <v>224</v>
       </c>
       <c r="C49" s="24"/>
-      <c r="D49" s="19"/>
-      <c r="E49" s="20"/>
+      <c r="D49" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="E49" s="20">
+        <v>400</v>
+      </c>
       <c r="F49" s="21"/>
       <c r="G49" s="22"/>
       <c r="H49" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="50" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -8834,16 +8959,16 @@
       <c r="D56" s="2"/>
       <c r="E56" s="39">
         <f>SUM(E4:E55)</f>
-        <v>346649</v>
+        <v>760914</v>
       </c>
       <c r="F56" s="39"/>
       <c r="G56" s="39">
         <f>SUM(G4:G55)</f>
-        <v>45782</v>
+        <v>115649</v>
       </c>
       <c r="H56" s="40">
         <f>SUM(H4:H55)</f>
-        <v>291747</v>
+        <v>628649</v>
       </c>
       <c r="I56" s="2"/>
     </row>
@@ -8887,7 +9012,7 @@
       <c r="D60" s="2"/>
       <c r="E60" s="110">
         <f>E56-G56</f>
-        <v>300867</v>
+        <v>645265</v>
       </c>
       <c r="F60" s="111"/>
       <c r="G60" s="112"/>

--- a/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #02  FEBRERO 2022/CREDITOS  4 CARNES   ZAVALETA   FEBRERO    2022 Validado.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #02  FEBRERO 2022/CREDITOS  4 CARNES   ZAVALETA   FEBRERO    2022 Validado.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="35">
   <si>
     <t>REMISION</t>
   </si>
@@ -1441,13 +1441,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>647703</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>64</xdr:row>
       <xdr:rowOff>152402</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>180974</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>66</xdr:row>
       <xdr:rowOff>133349</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1494,13 +1494,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>561977</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>64</xdr:row>
       <xdr:rowOff>123829</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>66</xdr:row>
       <xdr:rowOff>161927</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -6312,10 +6312,10 @@
   <dimension ref="A1:I73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="D35" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="D47" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="G46" sqref="G46"/>
+      <selection pane="bottomRight" activeCell="D59" sqref="D59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -7442,11 +7442,15 @@
       <c r="E46" s="20">
         <v>14735</v>
       </c>
-      <c r="F46" s="95"/>
-      <c r="G46" s="96"/>
+      <c r="F46" s="95">
+        <v>44617</v>
+      </c>
+      <c r="G46" s="96">
+        <v>14735</v>
+      </c>
       <c r="H46" s="18">
         <f t="shared" si="0"/>
-        <v>14735</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -7463,11 +7467,15 @@
       <c r="E47" s="20">
         <v>38931</v>
       </c>
-      <c r="F47" s="95"/>
-      <c r="G47" s="96"/>
+      <c r="F47" s="95">
+        <v>44617</v>
+      </c>
+      <c r="G47" s="96">
+        <v>38931</v>
+      </c>
       <c r="H47" s="18">
         <f t="shared" si="0"/>
-        <v>38931</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -7484,11 +7492,15 @@
       <c r="E48" s="20">
         <v>470</v>
       </c>
-      <c r="F48" s="95"/>
-      <c r="G48" s="96"/>
+      <c r="F48" s="95">
+        <v>44617</v>
+      </c>
+      <c r="G48" s="96">
+        <v>470</v>
+      </c>
       <c r="H48" s="18">
         <f t="shared" si="0"/>
-        <v>470</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -7505,11 +7517,15 @@
       <c r="E49" s="20">
         <v>14525</v>
       </c>
-      <c r="F49" s="95"/>
-      <c r="G49" s="96"/>
+      <c r="F49" s="95">
+        <v>44617</v>
+      </c>
+      <c r="G49" s="96">
+        <v>14525</v>
+      </c>
       <c r="H49" s="18">
         <f t="shared" si="0"/>
-        <v>14525</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -7526,11 +7542,15 @@
       <c r="E50" s="20">
         <v>23472</v>
       </c>
-      <c r="F50" s="95"/>
-      <c r="G50" s="96"/>
+      <c r="F50" s="95">
+        <v>44617</v>
+      </c>
+      <c r="G50" s="96">
+        <v>23472</v>
+      </c>
       <c r="H50" s="18">
         <f t="shared" si="0"/>
-        <v>23472</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -7547,11 +7567,15 @@
       <c r="E51" s="20">
         <v>381</v>
       </c>
-      <c r="F51" s="95"/>
-      <c r="G51" s="96"/>
+      <c r="F51" s="95">
+        <v>44617</v>
+      </c>
+      <c r="G51" s="96">
+        <v>381</v>
+      </c>
       <c r="H51" s="18">
         <f t="shared" si="0"/>
-        <v>381</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -7620,11 +7644,11 @@
       <c r="F56" s="39"/>
       <c r="G56" s="39">
         <f>SUM(G4:G55)</f>
-        <v>513081</v>
+        <v>605595</v>
       </c>
       <c r="H56" s="40">
         <f>SUM(H4:H55)</f>
-        <v>92514</v>
+        <v>0</v>
       </c>
       <c r="I56" s="2"/>
     </row>
@@ -7668,7 +7692,7 @@
       <c r="D60" s="2"/>
       <c r="E60" s="110">
         <f>E56-G56</f>
-        <v>92514</v>
+        <v>0</v>
       </c>
       <c r="F60" s="111"/>
       <c r="G60" s="112"/>
@@ -7812,10 +7836,10 @@
   <sheetPr>
     <tabColor rgb="FF990033"/>
   </sheetPr>
-  <dimension ref="A1:I73"/>
+  <dimension ref="A1:I81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="D50" sqref="D50"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -7894,11 +7918,15 @@
       <c r="E4" s="15">
         <v>14378</v>
       </c>
-      <c r="F4" s="16"/>
-      <c r="G4" s="17"/>
+      <c r="F4" s="16">
+        <v>44617</v>
+      </c>
+      <c r="G4" s="17">
+        <v>14378</v>
+      </c>
       <c r="H4" s="18">
-        <f t="shared" ref="H4:H55" si="0">E4-G4</f>
-        <v>14378</v>
+        <f t="shared" ref="H4:H63" si="0">E4-G4</f>
+        <v>0</v>
       </c>
       <c r="I4" s="2"/>
     </row>
@@ -7916,11 +7944,15 @@
       <c r="E5" s="20">
         <v>740</v>
       </c>
-      <c r="F5" s="21"/>
-      <c r="G5" s="22"/>
+      <c r="F5" s="21">
+        <v>44617</v>
+      </c>
+      <c r="G5" s="22">
+        <v>740</v>
+      </c>
       <c r="H5" s="18">
         <f t="shared" si="0"/>
-        <v>740</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -7962,11 +7994,15 @@
       <c r="E7" s="20">
         <v>1</v>
       </c>
-      <c r="F7" s="21"/>
-      <c r="G7" s="22"/>
+      <c r="F7" s="21">
+        <v>44617</v>
+      </c>
+      <c r="G7" s="22">
+        <v>1</v>
+      </c>
       <c r="H7" s="18">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -7983,11 +8019,15 @@
       <c r="E8" s="20">
         <v>15084</v>
       </c>
-      <c r="F8" s="21"/>
-      <c r="G8" s="22"/>
+      <c r="F8" s="21">
+        <v>44617</v>
+      </c>
+      <c r="G8" s="22">
+        <v>15084</v>
+      </c>
       <c r="H8" s="75">
         <f t="shared" si="0"/>
-        <v>15084</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -8004,11 +8044,15 @@
       <c r="E9" s="20">
         <v>7105</v>
       </c>
-      <c r="F9" s="21"/>
-      <c r="G9" s="22"/>
+      <c r="F9" s="21">
+        <v>44617</v>
+      </c>
+      <c r="G9" s="22">
+        <v>7105</v>
+      </c>
       <c r="H9" s="18">
         <f t="shared" si="0"/>
-        <v>7105</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -8025,11 +8069,15 @@
       <c r="E10" s="20">
         <v>680</v>
       </c>
-      <c r="F10" s="21"/>
-      <c r="G10" s="22"/>
+      <c r="F10" s="21">
+        <v>44617</v>
+      </c>
+      <c r="G10" s="22">
+        <v>680</v>
+      </c>
       <c r="H10" s="18">
         <f t="shared" si="0"/>
-        <v>680</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -8040,17 +8088,21 @@
         <v>186</v>
       </c>
       <c r="C11" s="14"/>
-      <c r="D11" s="19" t="s">
+      <c r="D11" s="87" t="s">
         <v>32</v>
       </c>
-      <c r="E11" s="20">
-        <v>631</v>
-      </c>
-      <c r="F11" s="21"/>
-      <c r="G11" s="22"/>
+      <c r="E11" s="84">
+        <v>831</v>
+      </c>
+      <c r="F11" s="69">
+        <v>44618</v>
+      </c>
+      <c r="G11" s="70">
+        <v>831</v>
+      </c>
       <c r="H11" s="18">
         <f t="shared" si="0"/>
-        <v>631</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -8067,11 +8119,15 @@
       <c r="E12" s="20">
         <v>21154</v>
       </c>
-      <c r="F12" s="21"/>
-      <c r="G12" s="22"/>
+      <c r="F12" s="21">
+        <v>44617</v>
+      </c>
+      <c r="G12" s="22">
+        <v>21154</v>
+      </c>
       <c r="H12" s="18">
         <f t="shared" si="0"/>
-        <v>21154</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -8088,11 +8144,15 @@
       <c r="E13" s="20">
         <v>6814</v>
       </c>
-      <c r="F13" s="21"/>
-      <c r="G13" s="22"/>
+      <c r="F13" s="21">
+        <v>44617</v>
+      </c>
+      <c r="G13" s="22">
+        <v>6814</v>
+      </c>
       <c r="H13" s="18">
         <f t="shared" si="0"/>
-        <v>6814</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -8109,11 +8169,15 @@
       <c r="E14" s="20">
         <v>7854</v>
       </c>
-      <c r="F14" s="21"/>
-      <c r="G14" s="22"/>
+      <c r="F14" s="21">
+        <v>44617</v>
+      </c>
+      <c r="G14" s="22">
+        <v>7854</v>
+      </c>
       <c r="H14" s="18">
         <f t="shared" si="0"/>
-        <v>7854</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -8130,11 +8194,15 @@
       <c r="E15" s="20">
         <v>17988</v>
       </c>
-      <c r="F15" s="21"/>
-      <c r="G15" s="22"/>
+      <c r="F15" s="21">
+        <v>44617</v>
+      </c>
+      <c r="G15" s="22">
+        <v>17988</v>
+      </c>
       <c r="H15" s="18">
         <f t="shared" si="0"/>
-        <v>17988</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -8151,11 +8219,15 @@
       <c r="E16" s="20">
         <v>840</v>
       </c>
-      <c r="F16" s="21"/>
-      <c r="G16" s="22"/>
+      <c r="F16" s="21">
+        <v>44617</v>
+      </c>
+      <c r="G16" s="22">
+        <v>840</v>
+      </c>
       <c r="H16" s="18">
         <f t="shared" si="0"/>
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -8172,11 +8244,15 @@
       <c r="E17" s="20">
         <v>4305</v>
       </c>
-      <c r="F17" s="21"/>
-      <c r="G17" s="22"/>
+      <c r="F17" s="21">
+        <v>44617</v>
+      </c>
+      <c r="G17" s="22">
+        <v>4305</v>
+      </c>
       <c r="H17" s="18">
         <f t="shared" si="0"/>
-        <v>4305</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -8193,11 +8269,15 @@
       <c r="E18" s="20">
         <v>6834</v>
       </c>
-      <c r="F18" s="103"/>
-      <c r="G18" s="22"/>
+      <c r="F18" s="21">
+        <v>44617</v>
+      </c>
+      <c r="G18" s="22">
+        <v>6834</v>
+      </c>
       <c r="H18" s="18">
         <f t="shared" si="0"/>
-        <v>6834</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -8214,11 +8294,15 @@
       <c r="E19" s="20">
         <v>9261</v>
       </c>
-      <c r="F19" s="21"/>
-      <c r="G19" s="22"/>
+      <c r="F19" s="21">
+        <v>44617</v>
+      </c>
+      <c r="G19" s="22">
+        <v>9261</v>
+      </c>
       <c r="H19" s="18">
         <f t="shared" si="0"/>
-        <v>9261</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -8235,11 +8319,15 @@
       <c r="E20" s="20">
         <v>23661</v>
       </c>
-      <c r="F20" s="21"/>
-      <c r="G20" s="22"/>
+      <c r="F20" s="21">
+        <v>44617</v>
+      </c>
+      <c r="G20" s="22">
+        <v>23661</v>
+      </c>
       <c r="H20" s="18">
         <f t="shared" si="0"/>
-        <v>23661</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -8281,11 +8369,15 @@
       <c r="E22" s="20">
         <v>16765</v>
       </c>
-      <c r="F22" s="21"/>
-      <c r="G22" s="22"/>
+      <c r="F22" s="21">
+        <v>44617</v>
+      </c>
+      <c r="G22" s="22">
+        <v>16765</v>
+      </c>
       <c r="H22" s="18">
         <f t="shared" si="0"/>
-        <v>16765</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -8302,11 +8394,15 @@
       <c r="E23" s="20">
         <v>2040</v>
       </c>
-      <c r="F23" s="21"/>
-      <c r="G23" s="22"/>
+      <c r="F23" s="21">
+        <v>44617</v>
+      </c>
+      <c r="G23" s="22">
+        <v>2040</v>
+      </c>
       <c r="H23" s="18">
         <f t="shared" si="0"/>
-        <v>2040</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -8348,11 +8444,15 @@
       <c r="E25" s="20">
         <v>6814</v>
       </c>
-      <c r="F25" s="21"/>
-      <c r="G25" s="22"/>
+      <c r="F25" s="21">
+        <v>44617</v>
+      </c>
+      <c r="G25" s="22">
+        <v>6814</v>
+      </c>
       <c r="H25" s="18">
         <f t="shared" si="0"/>
-        <v>6814</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
@@ -8369,11 +8469,15 @@
       <c r="E26" s="20">
         <v>8547</v>
       </c>
-      <c r="F26" s="21"/>
-      <c r="G26" s="22"/>
+      <c r="F26" s="21">
+        <v>44617</v>
+      </c>
+      <c r="G26" s="22">
+        <v>8547</v>
+      </c>
       <c r="H26" s="18">
         <f t="shared" si="0"/>
-        <v>8547</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -8390,11 +8494,15 @@
       <c r="E27" s="20">
         <v>35414</v>
       </c>
-      <c r="F27" s="21"/>
-      <c r="G27" s="22"/>
+      <c r="F27" s="21">
+        <v>44617</v>
+      </c>
+      <c r="G27" s="22">
+        <v>35414</v>
+      </c>
       <c r="H27" s="18">
         <f t="shared" si="0"/>
-        <v>35414</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
@@ -8411,11 +8519,15 @@
       <c r="E28" s="20">
         <v>7035</v>
       </c>
-      <c r="F28" s="21"/>
-      <c r="G28" s="22"/>
+      <c r="F28" s="21">
+        <v>44617</v>
+      </c>
+      <c r="G28" s="22">
+        <v>7035</v>
+      </c>
       <c r="H28" s="18">
         <f t="shared" si="0"/>
-        <v>7035</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -8432,11 +8544,15 @@
       <c r="E29" s="20">
         <v>75</v>
       </c>
-      <c r="F29" s="21"/>
-      <c r="G29" s="22"/>
+      <c r="F29" s="21">
+        <v>44617</v>
+      </c>
+      <c r="G29" s="22">
+        <v>75</v>
+      </c>
       <c r="H29" s="18">
         <f t="shared" si="0"/>
-        <v>75</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
@@ -8453,11 +8569,15 @@
       <c r="E30" s="20">
         <v>6556</v>
       </c>
-      <c r="F30" s="21"/>
-      <c r="G30" s="22"/>
+      <c r="F30" s="21">
+        <v>44617</v>
+      </c>
+      <c r="G30" s="22">
+        <v>6556</v>
+      </c>
       <c r="H30" s="75">
         <f t="shared" si="0"/>
-        <v>6556</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
@@ -8474,11 +8594,15 @@
       <c r="E31" s="20">
         <v>19810</v>
       </c>
-      <c r="F31" s="21"/>
-      <c r="G31" s="22"/>
+      <c r="F31" s="21">
+        <v>44617</v>
+      </c>
+      <c r="G31" s="22">
+        <v>19810</v>
+      </c>
       <c r="H31" s="18">
         <f t="shared" si="0"/>
-        <v>19810</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -8495,8 +8619,12 @@
       <c r="E32" s="20">
         <v>9120</v>
       </c>
-      <c r="F32" s="21"/>
-      <c r="G32" s="22"/>
+      <c r="F32" s="21">
+        <v>44617</v>
+      </c>
+      <c r="G32" s="22">
+        <v>9120</v>
+      </c>
       <c r="H32" s="18">
         <v>0</v>
       </c>
@@ -8539,8 +8667,12 @@
       <c r="E34" s="20">
         <v>7496</v>
       </c>
-      <c r="F34" s="21"/>
-      <c r="G34" s="22"/>
+      <c r="F34" s="21">
+        <v>44617</v>
+      </c>
+      <c r="G34" s="22">
+        <v>7496</v>
+      </c>
       <c r="H34" s="18">
         <v>0</v>
       </c>
@@ -8559,11 +8691,15 @@
       <c r="E35" s="20">
         <v>1060</v>
       </c>
-      <c r="F35" s="21"/>
-      <c r="G35" s="22"/>
+      <c r="F35" s="21">
+        <v>44617</v>
+      </c>
+      <c r="G35" s="22">
+        <v>1060</v>
+      </c>
       <c r="H35" s="18">
         <f t="shared" si="0"/>
-        <v>1060</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -8580,11 +8716,15 @@
       <c r="E36" s="20">
         <v>6970</v>
       </c>
-      <c r="F36" s="21"/>
-      <c r="G36" s="22"/>
+      <c r="F36" s="21">
+        <v>44617</v>
+      </c>
+      <c r="G36" s="22">
+        <v>6970</v>
+      </c>
       <c r="H36" s="18">
         <f t="shared" si="0"/>
-        <v>6970</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -8647,11 +8787,15 @@
       <c r="E39" s="20">
         <v>7105</v>
       </c>
-      <c r="F39" s="21"/>
-      <c r="G39" s="22"/>
+      <c r="F39" s="21">
+        <v>44617</v>
+      </c>
+      <c r="G39" s="22">
+        <v>7105</v>
+      </c>
       <c r="H39" s="18">
         <f t="shared" si="0"/>
-        <v>7105</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -8668,11 +8812,15 @@
       <c r="E40" s="20">
         <v>7690</v>
       </c>
-      <c r="F40" s="21"/>
-      <c r="G40" s="22"/>
+      <c r="F40" s="21">
+        <v>44617</v>
+      </c>
+      <c r="G40" s="22">
+        <v>7690</v>
+      </c>
       <c r="H40" s="18">
         <f t="shared" si="0"/>
-        <v>7690</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -8689,11 +8837,15 @@
       <c r="E41" s="20">
         <v>340</v>
       </c>
-      <c r="F41" s="21"/>
-      <c r="G41" s="22"/>
+      <c r="F41" s="21">
+        <v>44617</v>
+      </c>
+      <c r="G41" s="22">
+        <v>340</v>
+      </c>
       <c r="H41" s="18">
         <f t="shared" si="0"/>
-        <v>340</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -8710,11 +8862,15 @@
       <c r="E42" s="20">
         <v>8456</v>
       </c>
-      <c r="F42" s="21"/>
-      <c r="G42" s="22"/>
+      <c r="F42" s="21">
+        <v>44617</v>
+      </c>
+      <c r="G42" s="22">
+        <v>8456</v>
+      </c>
       <c r="H42" s="18">
         <f t="shared" si="0"/>
-        <v>8456</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -8731,11 +8887,15 @@
       <c r="E43" s="20">
         <v>21362</v>
       </c>
-      <c r="F43" s="21"/>
-      <c r="G43" s="22"/>
+      <c r="F43" s="21">
+        <v>44617</v>
+      </c>
+      <c r="G43" s="22">
+        <v>21362</v>
+      </c>
       <c r="H43" s="18">
         <f t="shared" si="0"/>
-        <v>21362</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -8752,11 +8912,15 @@
       <c r="E44" s="20">
         <v>11560</v>
       </c>
-      <c r="F44" s="21"/>
-      <c r="G44" s="22"/>
+      <c r="F44" s="21">
+        <v>44617</v>
+      </c>
+      <c r="G44" s="22">
+        <v>11560</v>
+      </c>
       <c r="H44" s="18">
         <f t="shared" si="0"/>
-        <v>11560</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -8773,11 +8937,15 @@
       <c r="E45" s="20">
         <v>189945</v>
       </c>
-      <c r="F45" s="21"/>
-      <c r="G45" s="22"/>
+      <c r="F45" s="21">
+        <v>44617</v>
+      </c>
+      <c r="G45" s="22">
+        <v>189945</v>
+      </c>
       <c r="H45" s="18">
         <f t="shared" si="0"/>
-        <v>189945</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -8815,11 +8983,15 @@
       <c r="E47" s="20">
         <v>91036</v>
       </c>
-      <c r="F47" s="21"/>
-      <c r="G47" s="22"/>
+      <c r="F47" s="21">
+        <v>44617</v>
+      </c>
+      <c r="G47" s="22">
+        <v>91036</v>
+      </c>
       <c r="H47" s="18">
         <f t="shared" si="0"/>
-        <v>91036</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -8857,243 +9029,342 @@
       <c r="E49" s="20">
         <v>400</v>
       </c>
-      <c r="F49" s="21"/>
-      <c r="G49" s="22"/>
+      <c r="F49" s="21">
+        <v>44617</v>
+      </c>
+      <c r="G49" s="22">
+        <v>400</v>
+      </c>
       <c r="H49" s="18">
         <f t="shared" si="0"/>
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="23"/>
+      <c r="A50" s="23">
+        <v>44616</v>
+      </c>
       <c r="B50" s="13">
         <v>225</v>
       </c>
       <c r="C50" s="24"/>
-      <c r="D50" s="19"/>
-      <c r="E50" s="20"/>
-      <c r="F50" s="21"/>
-      <c r="G50" s="22"/>
+      <c r="D50" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="E50" s="20">
+        <v>14110</v>
+      </c>
+      <c r="F50" s="21">
+        <v>44617</v>
+      </c>
+      <c r="G50" s="22">
+        <v>14110</v>
+      </c>
       <c r="H50" s="18">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="23"/>
+      <c r="A51" s="23">
+        <v>44616</v>
+      </c>
       <c r="B51" s="13">
         <v>226</v>
       </c>
       <c r="C51" s="24"/>
-      <c r="D51" s="19"/>
-      <c r="E51" s="20"/>
-      <c r="F51" s="21"/>
-      <c r="G51" s="22"/>
+      <c r="D51" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E51" s="20">
+        <v>1</v>
+      </c>
+      <c r="F51" s="21">
+        <v>44617</v>
+      </c>
+      <c r="G51" s="22">
+        <v>1</v>
+      </c>
       <c r="H51" s="18">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="23"/>
+      <c r="A52" s="23">
+        <v>44616</v>
+      </c>
       <c r="B52" s="13">
         <v>227</v>
       </c>
       <c r="C52" s="24"/>
-      <c r="D52" s="19"/>
-      <c r="E52" s="20"/>
-      <c r="F52" s="21"/>
-      <c r="G52" s="22"/>
+      <c r="D52" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="E52" s="20">
+        <v>25545</v>
+      </c>
+      <c r="F52" s="21">
+        <v>44617</v>
+      </c>
+      <c r="G52" s="22">
+        <v>25545</v>
+      </c>
       <c r="H52" s="18">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="23"/>
+      <c r="A53" s="23">
+        <v>44617</v>
+      </c>
       <c r="B53" s="13">
         <v>228</v>
       </c>
       <c r="C53" s="24"/>
-      <c r="D53" s="19"/>
-      <c r="E53" s="20"/>
+      <c r="D53" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="E53" s="20">
+        <v>18164</v>
+      </c>
       <c r="F53" s="21"/>
       <c r="G53" s="22"/>
       <c r="H53" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>18164</v>
       </c>
     </row>
     <row r="54" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="23"/>
-      <c r="B54" s="13"/>
+      <c r="A54" s="23">
+        <v>44618</v>
+      </c>
+      <c r="B54" s="13">
+        <v>229</v>
+      </c>
       <c r="C54" s="24"/>
-      <c r="D54" s="59"/>
-      <c r="E54" s="60"/>
-      <c r="F54" s="61"/>
-      <c r="G54" s="62"/>
+      <c r="D54" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="E54" s="20">
+        <v>12138</v>
+      </c>
+      <c r="F54" s="21"/>
+      <c r="G54" s="22"/>
       <c r="H54" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="31"/>
-      <c r="B55" s="13"/>
-      <c r="C55" s="32"/>
-      <c r="D55" s="33"/>
-      <c r="E55" s="34">
-        <v>0</v>
-      </c>
-      <c r="F55" s="35"/>
-      <c r="G55" s="36"/>
-      <c r="H55" s="29">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I55" s="2"/>
-    </row>
-    <row r="56" spans="1:9" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="37"/>
-      <c r="C56" s="38"/>
-      <c r="D56" s="2"/>
-      <c r="E56" s="39">
-        <f>SUM(E4:E55)</f>
-        <v>760914</v>
-      </c>
-      <c r="F56" s="39"/>
-      <c r="G56" s="39">
-        <f>SUM(G4:G55)</f>
-        <v>115649</v>
-      </c>
-      <c r="H56" s="40">
-        <f>SUM(H4:H55)</f>
-        <v>628649</v>
-      </c>
-      <c r="I56" s="2"/>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B57" s="37"/>
-      <c r="C57" s="38"/>
-      <c r="D57" s="2"/>
-      <c r="E57" s="41"/>
-      <c r="F57" s="42"/>
-      <c r="G57" s="43"/>
-      <c r="H57" s="44"/>
-      <c r="I57" s="2"/>
-    </row>
-    <row r="58" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B58" s="37"/>
-      <c r="C58" s="38"/>
-      <c r="D58" s="2"/>
-      <c r="E58" s="45" t="s">
-        <v>6</v>
-      </c>
-      <c r="F58" s="42"/>
-      <c r="G58" s="46" t="s">
-        <v>7</v>
-      </c>
-      <c r="H58" s="44"/>
-      <c r="I58" s="2"/>
-    </row>
-    <row r="59" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B59" s="37"/>
-      <c r="C59" s="38"/>
-      <c r="D59" s="2"/>
-      <c r="E59" s="45"/>
-      <c r="F59" s="42"/>
-      <c r="G59" s="46"/>
-      <c r="H59" s="44"/>
-      <c r="I59" s="2"/>
-    </row>
-    <row r="60" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B60" s="37"/>
-      <c r="C60" s="38"/>
-      <c r="D60" s="2"/>
-      <c r="E60" s="110">
-        <f>E56-G56</f>
-        <v>645265</v>
-      </c>
-      <c r="F60" s="111"/>
-      <c r="G60" s="112"/>
-      <c r="I60" s="2"/>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B61" s="37"/>
-      <c r="C61" s="38"/>
-      <c r="D61" s="2"/>
-      <c r="E61" s="41"/>
-      <c r="F61" s="42"/>
-      <c r="G61" s="43"/>
-      <c r="I61" s="2"/>
-    </row>
-    <row r="62" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B62" s="37"/>
-      <c r="C62" s="38"/>
-      <c r="D62" s="2"/>
-      <c r="E62" s="113" t="s">
-        <v>8</v>
-      </c>
-      <c r="F62" s="113"/>
-      <c r="G62" s="113"/>
-      <c r="I62" s="2"/>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B63" s="37"/>
-      <c r="C63" s="38"/>
-      <c r="D63" s="2"/>
-      <c r="E63" s="41"/>
-      <c r="F63" s="42"/>
-      <c r="G63" s="43"/>
+        <v>12138</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="23">
+        <v>44618</v>
+      </c>
+      <c r="B55" s="13">
+        <v>230</v>
+      </c>
+      <c r="C55" s="24"/>
+      <c r="D55" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E55" s="20">
+        <v>7072</v>
+      </c>
+      <c r="F55" s="21"/>
+      <c r="G55" s="22"/>
+      <c r="H55" s="18">
+        <f t="shared" si="0"/>
+        <v>7072</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="23"/>
+      <c r="B56" s="13">
+        <v>231</v>
+      </c>
+      <c r="C56" s="24"/>
+      <c r="D56" s="19"/>
+      <c r="E56" s="20"/>
+      <c r="F56" s="21"/>
+      <c r="G56" s="22"/>
+      <c r="H56" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="23"/>
+      <c r="B57" s="13">
+        <v>232</v>
+      </c>
+      <c r="C57" s="24"/>
+      <c r="D57" s="19"/>
+      <c r="E57" s="20"/>
+      <c r="F57" s="21"/>
+      <c r="G57" s="22"/>
+      <c r="H57" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="23"/>
+      <c r="B58" s="13">
+        <v>233</v>
+      </c>
+      <c r="C58" s="24"/>
+      <c r="D58" s="19"/>
+      <c r="E58" s="20"/>
+      <c r="F58" s="21"/>
+      <c r="G58" s="22"/>
+      <c r="H58" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="23"/>
+      <c r="B59" s="13">
+        <v>234</v>
+      </c>
+      <c r="C59" s="24"/>
+      <c r="D59" s="19"/>
+      <c r="E59" s="20"/>
+      <c r="F59" s="21"/>
+      <c r="G59" s="22"/>
+      <c r="H59" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="23"/>
+      <c r="B60" s="13">
+        <v>235</v>
+      </c>
+      <c r="C60" s="24"/>
+      <c r="D60" s="19"/>
+      <c r="E60" s="20"/>
+      <c r="F60" s="21"/>
+      <c r="G60" s="22"/>
+      <c r="H60" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="23"/>
+      <c r="B61" s="13">
+        <v>236</v>
+      </c>
+      <c r="C61" s="24"/>
+      <c r="D61" s="19"/>
+      <c r="E61" s="20"/>
+      <c r="F61" s="21"/>
+      <c r="G61" s="22"/>
+      <c r="H61" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="23"/>
+      <c r="B62" s="13">
+        <v>237</v>
+      </c>
+      <c r="C62" s="24"/>
+      <c r="D62" s="19"/>
+      <c r="E62" s="20"/>
+      <c r="F62" s="21"/>
+      <c r="G62" s="22"/>
+      <c r="H62" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="31"/>
+      <c r="B63" s="13"/>
+      <c r="C63" s="32"/>
+      <c r="D63" s="33"/>
+      <c r="E63" s="34">
+        <v>0</v>
+      </c>
+      <c r="F63" s="35"/>
+      <c r="G63" s="36"/>
+      <c r="H63" s="29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="I63" s="2"/>
     </row>
-    <row r="64" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A64" s="30"/>
-      <c r="B64" s="47"/>
-      <c r="C64" s="48"/>
-      <c r="D64" s="49"/>
-      <c r="E64" s="50"/>
-      <c r="F64" s="51"/>
-      <c r="G64" s="50"/>
+    <row r="64" spans="1:9" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B64" s="37"/>
+      <c r="C64" s="38"/>
+      <c r="D64" s="2"/>
+      <c r="E64" s="39">
+        <f>SUM(E4:E63)</f>
+        <v>838144</v>
+      </c>
+      <c r="F64" s="39"/>
+      <c r="G64" s="39">
+        <f>SUM(G4:G63)</f>
+        <v>758431</v>
+      </c>
+      <c r="H64" s="40">
+        <f>SUM(H4:H63)</f>
+        <v>79713</v>
+      </c>
       <c r="I64" s="2"/>
     </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B65" s="37"/>
       <c r="C65" s="38"/>
       <c r="D65" s="2"/>
       <c r="E65" s="41"/>
       <c r="F65" s="42"/>
       <c r="G65" s="43"/>
+      <c r="H65" s="44"/>
       <c r="I65" s="2"/>
     </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B66" s="37"/>
       <c r="C66" s="38"/>
       <c r="D66" s="2"/>
-      <c r="E66" s="41"/>
+      <c r="E66" s="45" t="s">
+        <v>6</v>
+      </c>
       <c r="F66" s="42"/>
-      <c r="G66" s="43"/>
+      <c r="G66" s="46" t="s">
+        <v>7</v>
+      </c>
+      <c r="H66" s="44"/>
       <c r="I66" s="2"/>
     </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B67" s="37"/>
       <c r="C67" s="38"/>
       <c r="D67" s="2"/>
-      <c r="E67" s="41"/>
+      <c r="E67" s="45"/>
       <c r="F67" s="42"/>
-      <c r="G67" s="43"/>
+      <c r="G67" s="46"/>
+      <c r="H67" s="44"/>
       <c r="I67" s="2"/>
     </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B68" s="37"/>
       <c r="C68" s="38"/>
       <c r="D68" s="2"/>
-      <c r="E68" s="41"/>
-      <c r="F68" s="42"/>
-      <c r="G68" s="43"/>
+      <c r="E68" s="110">
+        <f>E64-G64</f>
+        <v>79713</v>
+      </c>
+      <c r="F68" s="111"/>
+      <c r="G68" s="112"/>
       <c r="I68" s="2"/>
     </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B69" s="37"/>
       <c r="C69" s="38"/>
       <c r="D69" s="2"/>
@@ -9102,16 +9373,18 @@
       <c r="G69" s="43"/>
       <c r="I69" s="2"/>
     </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B70" s="37"/>
       <c r="C70" s="38"/>
       <c r="D70" s="2"/>
-      <c r="E70" s="41"/>
-      <c r="F70" s="42"/>
-      <c r="G70" s="43"/>
+      <c r="E70" s="113" t="s">
+        <v>8</v>
+      </c>
+      <c r="F70" s="113"/>
+      <c r="G70" s="113"/>
       <c r="I70" s="2"/>
     </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B71" s="37"/>
       <c r="C71" s="38"/>
       <c r="D71" s="2"/>
@@ -9120,16 +9393,17 @@
       <c r="G71" s="43"/>
       <c r="I71" s="2"/>
     </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B72" s="37"/>
-      <c r="C72" s="38"/>
-      <c r="D72" s="2"/>
-      <c r="E72" s="41"/>
-      <c r="F72" s="42"/>
-      <c r="G72" s="43"/>
+    <row r="72" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A72" s="30"/>
+      <c r="B72" s="47"/>
+      <c r="C72" s="48"/>
+      <c r="D72" s="49"/>
+      <c r="E72" s="50"/>
+      <c r="F72" s="51"/>
+      <c r="G72" s="50"/>
       <c r="I72" s="2"/>
     </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B73" s="37"/>
       <c r="C73" s="38"/>
       <c r="D73" s="2"/>
@@ -9138,15 +9412,88 @@
       <c r="G73" s="43"/>
       <c r="I73" s="2"/>
     </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B74" s="37"/>
+      <c r="C74" s="38"/>
+      <c r="D74" s="2"/>
+      <c r="E74" s="41"/>
+      <c r="F74" s="42"/>
+      <c r="G74" s="43"/>
+      <c r="I74" s="2"/>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B75" s="37"/>
+      <c r="C75" s="38"/>
+      <c r="D75" s="2"/>
+      <c r="E75" s="41"/>
+      <c r="F75" s="42"/>
+      <c r="G75" s="43"/>
+      <c r="I75" s="2"/>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B76" s="37"/>
+      <c r="C76" s="38"/>
+      <c r="D76" s="2"/>
+      <c r="E76" s="41"/>
+      <c r="F76" s="42"/>
+      <c r="G76" s="43"/>
+      <c r="I76" s="2"/>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B77" s="37"/>
+      <c r="C77" s="38"/>
+      <c r="D77" s="2"/>
+      <c r="E77" s="41"/>
+      <c r="F77" s="42"/>
+      <c r="G77" s="43"/>
+      <c r="I77" s="2"/>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B78" s="37"/>
+      <c r="C78" s="38"/>
+      <c r="D78" s="2"/>
+      <c r="E78" s="41"/>
+      <c r="F78" s="42"/>
+      <c r="G78" s="43"/>
+      <c r="I78" s="2"/>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B79" s="37"/>
+      <c r="C79" s="38"/>
+      <c r="D79" s="2"/>
+      <c r="E79" s="41"/>
+      <c r="F79" s="42"/>
+      <c r="G79" s="43"/>
+      <c r="I79" s="2"/>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B80" s="37"/>
+      <c r="C80" s="38"/>
+      <c r="D80" s="2"/>
+      <c r="E80" s="41"/>
+      <c r="F80" s="42"/>
+      <c r="G80" s="43"/>
+      <c r="I80" s="2"/>
+    </row>
+    <row r="81" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B81" s="37"/>
+      <c r="C81" s="38"/>
+      <c r="D81" s="2"/>
+      <c r="E81" s="41"/>
+      <c r="F81" s="42"/>
+      <c r="G81" s="43"/>
+      <c r="I81" s="2"/>
+    </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="B1:G1"/>
     <mergeCell ref="B2:F2"/>
-    <mergeCell ref="E60:G60"/>
-    <mergeCell ref="E62:G62"/>
+    <mergeCell ref="E68:G68"/>
+    <mergeCell ref="E70:G70"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
